--- a/science_proficiency_elementary_schools_small_district_size_only.xlsx
+++ b/science_proficiency_elementary_schools_small_district_size_only.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q195"/>
+  <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,11 @@
           <t># Science Proficiency - Children with Disabilities</t>
         </is>
       </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -584,6 +589,11 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -649,6 +659,11 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -714,6 +729,11 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -779,6 +799,11 @@
       <c r="Q5" t="n">
         <v>0</v>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -844,6 +869,11 @@
       <c r="Q6" t="n">
         <v>0</v>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -909,6 +939,11 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -974,6 +1009,11 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1039,6 +1079,11 @@
       <c r="Q9" t="n">
         <v>9</v>
       </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1104,6 +1149,11 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1169,6 +1219,11 @@
       <c r="Q11" t="n">
         <v>0</v>
       </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1234,6 +1289,11 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1299,6 +1359,11 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1364,6 +1429,11 @@
       <c r="Q14" t="n">
         <v>0</v>
       </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1429,6 +1499,11 @@
       <c r="Q15" t="n">
         <v>0</v>
       </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1494,6 +1569,11 @@
       <c r="Q16" t="n">
         <v>0</v>
       </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1559,6 +1639,11 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1624,6 +1709,11 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1689,6 +1779,11 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1754,6 +1849,11 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1819,6 +1919,11 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1884,6 +1989,11 @@
       <c r="Q22" t="n">
         <v>0</v>
       </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1949,6 +2059,11 @@
       <c r="Q23" t="n">
         <v>0</v>
       </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2014,6 +2129,11 @@
       <c r="Q24" t="n">
         <v>0</v>
       </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2079,6 +2199,11 @@
       <c r="Q25" t="n">
         <v>0</v>
       </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2144,6 +2269,11 @@
       <c r="Q26" t="n">
         <v>0</v>
       </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2209,6 +2339,11 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2274,6 +2409,11 @@
       <c r="Q28" t="n">
         <v>0</v>
       </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2339,6 +2479,11 @@
       <c r="Q29" t="n">
         <v>0</v>
       </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2404,6 +2549,11 @@
       <c r="Q30" t="n">
         <v>0</v>
       </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2469,6 +2619,11 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2534,6 +2689,11 @@
       <c r="Q32" t="n">
         <v>0</v>
       </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2599,6 +2759,11 @@
       <c r="Q33" t="n">
         <v>0</v>
       </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2664,6 +2829,11 @@
       <c r="Q34" t="n">
         <v>0</v>
       </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2729,6 +2899,11 @@
       <c r="Q35" t="n">
         <v>3</v>
       </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2794,6 +2969,11 @@
       <c r="Q36" t="n">
         <v>0</v>
       </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2859,6 +3039,11 @@
       <c r="Q37" t="n">
         <v>0</v>
       </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2924,6 +3109,11 @@
       <c r="Q38" t="n">
         <v>0</v>
       </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2989,6 +3179,11 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3054,6 +3249,11 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3119,6 +3319,11 @@
       <c r="Q41" t="n">
         <v>0</v>
       </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3184,6 +3389,11 @@
       <c r="Q42" t="n">
         <v>0</v>
       </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3249,6 +3459,11 @@
       <c r="Q43" t="n">
         <v>0</v>
       </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3314,6 +3529,11 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3379,6 +3599,11 @@
       <c r="Q45" t="n">
         <v>0</v>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3444,6 +3669,11 @@
       <c r="Q46" t="n">
         <v>0</v>
       </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3509,6 +3739,11 @@
       <c r="Q47" t="n">
         <v>9</v>
       </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3574,6 +3809,11 @@
       <c r="Q48" t="n">
         <v>0</v>
       </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3639,6 +3879,11 @@
       <c r="Q49" t="n">
         <v>0</v>
       </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3704,6 +3949,11 @@
       <c r="Q50" t="n">
         <v>0</v>
       </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3769,6 +4019,11 @@
       <c r="Q51" t="n">
         <v>0</v>
       </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3834,6 +4089,11 @@
       <c r="Q52" t="n">
         <v>0</v>
       </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3899,6 +4159,11 @@
       <c r="Q53" t="n">
         <v>0</v>
       </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3964,6 +4229,11 @@
       <c r="Q54" t="n">
         <v>0</v>
       </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4029,6 +4299,11 @@
       <c r="Q55" t="n">
         <v>0</v>
       </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4094,6 +4369,11 @@
       <c r="Q56" t="n">
         <v>0</v>
       </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4159,6 +4439,11 @@
       <c r="Q57" t="n">
         <v>0</v>
       </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4224,6 +4509,11 @@
       <c r="Q58" t="n">
         <v>0</v>
       </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4289,6 +4579,11 @@
       <c r="Q59" t="n">
         <v>0</v>
       </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4354,6 +4649,11 @@
       <c r="Q60" t="n">
         <v>0</v>
       </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4419,6 +4719,11 @@
       <c r="Q61" t="n">
         <v>0</v>
       </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4484,6 +4789,11 @@
       <c r="Q62" t="n">
         <v>4</v>
       </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4549,6 +4859,11 @@
       <c r="Q63" t="n">
         <v>0</v>
       </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4614,6 +4929,11 @@
       <c r="Q64" t="n">
         <v>5</v>
       </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4679,6 +4999,11 @@
       <c r="Q65" t="n">
         <v>0</v>
       </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4744,6 +5069,11 @@
       <c r="Q66" t="n">
         <v>0</v>
       </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4809,6 +5139,11 @@
       <c r="Q67" t="n">
         <v>0</v>
       </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4874,6 +5209,11 @@
       <c r="Q68" t="n">
         <v>0</v>
       </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4939,6 +5279,11 @@
       <c r="Q69" t="n">
         <v>1</v>
       </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5004,6 +5349,11 @@
       <c r="Q70" t="n">
         <v>3</v>
       </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5069,6 +5419,11 @@
       <c r="Q71" t="n">
         <v>0</v>
       </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5134,6 +5489,11 @@
       <c r="Q72" t="n">
         <v>0</v>
       </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5199,6 +5559,11 @@
       <c r="Q73" t="n">
         <v>0</v>
       </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5264,6 +5629,11 @@
       <c r="Q74" t="n">
         <v>0</v>
       </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5329,6 +5699,11 @@
       <c r="Q75" t="n">
         <v>5</v>
       </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5394,6 +5769,11 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5459,6 +5839,11 @@
       <c r="Q77" t="n">
         <v>0</v>
       </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5524,6 +5909,11 @@
       <c r="Q78" t="n">
         <v>0</v>
       </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5589,6 +5979,11 @@
       <c r="Q79" t="n">
         <v>0</v>
       </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5654,6 +6049,11 @@
       <c r="Q80" t="n">
         <v>0</v>
       </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5719,6 +6119,11 @@
       <c r="Q81" t="n">
         <v>0</v>
       </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5784,6 +6189,11 @@
       <c r="Q82" t="n">
         <v>0</v>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5849,6 +6259,11 @@
       <c r="Q83" t="n">
         <v>0</v>
       </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5914,6 +6329,11 @@
       <c r="Q84" t="n">
         <v>0</v>
       </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5979,6 +6399,11 @@
       <c r="Q85" t="n">
         <v>0</v>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6044,6 +6469,11 @@
       <c r="Q86" t="n">
         <v>0</v>
       </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6109,6 +6539,11 @@
       <c r="Q87" t="n">
         <v>4</v>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6174,6 +6609,11 @@
       <c r="Q88" t="n">
         <v>0</v>
       </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6239,6 +6679,11 @@
       <c r="Q89" t="n">
         <v>0</v>
       </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6304,6 +6749,11 @@
       <c r="Q90" t="n">
         <v>0</v>
       </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6369,6 +6819,11 @@
       <c r="Q91" t="n">
         <v>0</v>
       </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6434,6 +6889,11 @@
       <c r="Q92" t="n">
         <v>0</v>
       </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6499,6 +6959,11 @@
       <c r="Q93" t="n">
         <v>0</v>
       </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6564,6 +7029,11 @@
       <c r="Q94" t="n">
         <v>4</v>
       </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6629,6 +7099,11 @@
       <c r="Q95" t="n">
         <v>0</v>
       </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6694,6 +7169,11 @@
       <c r="Q96" t="n">
         <v>0</v>
       </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6759,6 +7239,11 @@
       <c r="Q97" t="n">
         <v>0</v>
       </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6824,6 +7309,11 @@
       <c r="Q98" t="n">
         <v>3</v>
       </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6889,6 +7379,11 @@
       <c r="Q99" t="n">
         <v>0</v>
       </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6954,6 +7449,11 @@
       <c r="Q100" t="n">
         <v>0</v>
       </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7019,6 +7519,11 @@
       <c r="Q101" t="n">
         <v>0</v>
       </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7084,6 +7589,11 @@
       <c r="Q102" t="n">
         <v>0</v>
       </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7149,6 +7659,11 @@
       <c r="Q103" t="n">
         <v>0</v>
       </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7214,6 +7729,11 @@
       <c r="Q104" t="n">
         <v>0</v>
       </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7279,6 +7799,11 @@
       <c r="Q105" t="n">
         <v>0</v>
       </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7344,6 +7869,11 @@
       <c r="Q106" t="n">
         <v>0</v>
       </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7409,6 +7939,11 @@
       <c r="Q107" t="n">
         <v>0</v>
       </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7474,6 +8009,11 @@
       <c r="Q108" t="n">
         <v>0</v>
       </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7539,6 +8079,11 @@
       <c r="Q109" t="n">
         <v>0</v>
       </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7604,6 +8149,11 @@
       <c r="Q110" t="n">
         <v>0</v>
       </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7669,6 +8219,11 @@
       <c r="Q111" t="n">
         <v>0</v>
       </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7734,6 +8289,11 @@
       <c r="Q112" t="n">
         <v>0</v>
       </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7799,6 +8359,11 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7864,6 +8429,11 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7929,6 +8499,11 @@
       <c r="Q115" t="n">
         <v>0</v>
       </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7994,6 +8569,11 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8059,6 +8639,11 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8124,6 +8709,11 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8189,6 +8779,11 @@
       <c r="Q119" t="n">
         <v>3</v>
       </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8254,6 +8849,11 @@
       <c r="Q120" t="n">
         <v>0</v>
       </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8319,6 +8919,11 @@
       <c r="Q121" t="n">
         <v>1</v>
       </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8384,6 +8989,11 @@
       <c r="Q122" t="n">
         <v>0</v>
       </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8449,6 +9059,11 @@
       <c r="Q123" t="n">
         <v>0</v>
       </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8514,6 +9129,11 @@
       <c r="Q124" t="n">
         <v>0</v>
       </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8579,6 +9199,11 @@
       <c r="Q125" t="n">
         <v>0</v>
       </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8644,6 +9269,11 @@
       <c r="Q126" t="n">
         <v>0</v>
       </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8709,6 +9339,11 @@
       <c r="Q127" t="n">
         <v>1</v>
       </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8774,6 +9409,11 @@
       <c r="Q128" t="n">
         <v>0</v>
       </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8839,6 +9479,11 @@
       <c r="Q129" t="n">
         <v>0</v>
       </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8904,6 +9549,11 @@
       <c r="Q130" t="n">
         <v>0</v>
       </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8969,6 +9619,11 @@
       <c r="Q131" t="n">
         <v>0</v>
       </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9034,6 +9689,11 @@
       <c r="Q132" t="n">
         <v>0</v>
       </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9099,6 +9759,11 @@
       <c r="Q133" t="n">
         <v>0</v>
       </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9164,6 +9829,11 @@
       <c r="Q134" t="n">
         <v>0</v>
       </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9229,6 +9899,11 @@
       <c r="Q135" t="n">
         <v>0</v>
       </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9294,6 +9969,11 @@
       <c r="Q136" t="n">
         <v>0</v>
       </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9359,6 +10039,11 @@
       <c r="Q137" t="n">
         <v>0</v>
       </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9424,6 +10109,11 @@
       <c r="Q138" t="n">
         <v>0</v>
       </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9489,6 +10179,11 @@
       <c r="Q139" t="n">
         <v>0</v>
       </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9554,6 +10249,11 @@
       <c r="Q140" t="n">
         <v>0</v>
       </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9619,6 +10319,11 @@
       <c r="Q141" t="n">
         <v>0</v>
       </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9684,6 +10389,11 @@
       <c r="Q142" t="n">
         <v>0</v>
       </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9749,6 +10459,11 @@
       <c r="Q143" t="n">
         <v>0</v>
       </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9814,6 +10529,11 @@
       <c r="Q144" t="n">
         <v>0</v>
       </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9879,6 +10599,11 @@
       <c r="Q145" t="n">
         <v>0</v>
       </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9944,6 +10669,11 @@
       <c r="Q146" t="n">
         <v>0</v>
       </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10009,6 +10739,11 @@
       <c r="Q147" t="n">
         <v>0</v>
       </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10074,6 +10809,11 @@
       <c r="Q148" t="n">
         <v>0</v>
       </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10139,6 +10879,11 @@
       <c r="Q149" t="n">
         <v>3</v>
       </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10204,6 +10949,11 @@
       <c r="Q150" t="n">
         <v>0</v>
       </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10269,6 +11019,11 @@
       <c r="Q151" t="n">
         <v>0</v>
       </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10334,6 +11089,11 @@
       <c r="Q152" t="n">
         <v>0</v>
       </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10399,6 +11159,11 @@
       <c r="Q153" t="n">
         <v>0</v>
       </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10464,6 +11229,11 @@
       <c r="Q154" t="n">
         <v>0</v>
       </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10529,6 +11299,11 @@
       <c r="Q155" t="n">
         <v>0</v>
       </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10594,6 +11369,11 @@
       <c r="Q156" t="n">
         <v>0</v>
       </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10659,6 +11439,11 @@
       <c r="Q157" t="n">
         <v>0</v>
       </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10724,6 +11509,11 @@
       <c r="Q158" t="n">
         <v>0</v>
       </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10789,6 +11579,11 @@
       <c r="Q159" t="n">
         <v>0</v>
       </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10854,6 +11649,11 @@
       <c r="Q160" t="n">
         <v>0</v>
       </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10919,6 +11719,11 @@
       <c r="Q161" t="n">
         <v>1</v>
       </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10984,6 +11789,11 @@
       <c r="Q162" t="n">
         <v>0</v>
       </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11049,6 +11859,11 @@
       <c r="Q163" t="n">
         <v>0</v>
       </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11114,6 +11929,11 @@
       <c r="Q164" t="n">
         <v>0</v>
       </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11179,6 +11999,11 @@
       <c r="Q165" t="n">
         <v>0</v>
       </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11244,6 +12069,11 @@
       <c r="Q166" t="n">
         <v>0</v>
       </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11309,6 +12139,11 @@
       <c r="Q167" t="n">
         <v>0</v>
       </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11374,6 +12209,11 @@
       <c r="Q168" t="n">
         <v>0</v>
       </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11439,6 +12279,11 @@
       <c r="Q169" t="n">
         <v>0</v>
       </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11504,6 +12349,11 @@
       <c r="Q170" t="n">
         <v>0</v>
       </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11569,6 +12419,11 @@
       <c r="Q171" t="n">
         <v>3</v>
       </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11634,6 +12489,11 @@
       <c r="Q172" t="n">
         <v>0</v>
       </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11699,6 +12559,11 @@
       <c r="Q173" t="n">
         <v>0</v>
       </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11764,6 +12629,11 @@
       <c r="Q174" t="n">
         <v>0</v>
       </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11829,6 +12699,11 @@
       <c r="Q175" t="n">
         <v>0</v>
       </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11894,6 +12769,11 @@
       <c r="Q176" t="n">
         <v>0</v>
       </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11959,6 +12839,11 @@
       <c r="Q177" t="n">
         <v>0</v>
       </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -12024,6 +12909,11 @@
       <c r="Q178" t="n">
         <v>1</v>
       </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -12089,6 +12979,11 @@
       <c r="Q179" t="n">
         <v>0</v>
       </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -12154,6 +13049,11 @@
       <c r="Q180" t="n">
         <v>0</v>
       </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12219,6 +13119,11 @@
       <c r="Q181" t="n">
         <v>0</v>
       </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12284,6 +13189,11 @@
       <c r="Q182" t="n">
         <v>0</v>
       </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12349,6 +13259,11 @@
       <c r="Q183" t="n">
         <v>0</v>
       </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Alarming</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12414,6 +13329,11 @@
       <c r="Q184" t="n">
         <v>0</v>
       </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12479,6 +13399,11 @@
       <c r="Q185" t="n">
         <v>4</v>
       </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12544,6 +13469,11 @@
       <c r="Q186" t="n">
         <v>0</v>
       </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12609,6 +13539,11 @@
       <c r="Q187" t="n">
         <v>0</v>
       </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12674,6 +13609,11 @@
       <c r="Q188" t="n">
         <v>0</v>
       </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>Moderate</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12739,6 +13679,11 @@
       <c r="Q189" t="n">
         <v>0</v>
       </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12804,6 +13749,11 @@
       <c r="Q190" t="n">
         <v>0</v>
       </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12869,6 +13819,11 @@
       <c r="Q191" t="n">
         <v>0</v>
       </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12934,6 +13889,11 @@
       <c r="Q192" t="n">
         <v>0</v>
       </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12999,6 +13959,11 @@
       <c r="Q193" t="n">
         <v>0</v>
       </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -13064,6 +14029,11 @@
       <c r="Q194" t="n">
         <v>0</v>
       </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -13128,6 +14098,11 @@
       </c>
       <c r="Q195" t="n">
         <v>0</v>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Up to Standard</t>
+        </is>
       </c>
     </row>
   </sheetData>
